--- a/hemocentro/dados_sangue.xlsx
+++ b/hemocentro/dados_sangue.xlsx
@@ -4,25 +4,28 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="total" sheetId="1" r:id="rId1"/>
     <sheet name="aferese" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="Bolsas">total!$A$1</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -43,16 +46,74 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -63,18 +124,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -87,44 +141,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,46 +156,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,13 +176,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -208,181 +199,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,6 +390,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -435,15 +474,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -460,267 +490,219 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="40% - Ênfase 4" xfId="3" builtinId="43"/>
-    <cellStyle name="Porcentagem" xfId="4" builtinId="5"/>
-    <cellStyle name="Célula Vinculada" xfId="5" builtinId="24"/>
-    <cellStyle name="Célula de Verificação" xfId="6" builtinId="23"/>
-    <cellStyle name="Moeda [0]" xfId="7" builtinId="7"/>
-    <cellStyle name="20% - Ênfase 3" xfId="8" builtinId="38"/>
-    <cellStyle name="Moeda" xfId="9" builtinId="4"/>
-    <cellStyle name="Hyperlink seguido" xfId="10" builtinId="9"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8"/>
-    <cellStyle name="40% - Ênfase 2" xfId="12" builtinId="35"/>
-    <cellStyle name="Observação" xfId="13" builtinId="10"/>
-    <cellStyle name="40% - Ênfase 6" xfId="14" builtinId="51"/>
-    <cellStyle name="Texto de Aviso" xfId="15" builtinId="11"/>
-    <cellStyle name="Título" xfId="16" builtinId="15"/>
-    <cellStyle name="Texto Explicativo" xfId="17" builtinId="53"/>
-    <cellStyle name="Ênfase 3" xfId="18" builtinId="37"/>
-    <cellStyle name="Título 1" xfId="19" builtinId="16"/>
-    <cellStyle name="Ênfase 4" xfId="20" builtinId="41"/>
-    <cellStyle name="Título 2" xfId="21" builtinId="17"/>
-    <cellStyle name="Ênfase 5" xfId="22" builtinId="45"/>
-    <cellStyle name="Título 3" xfId="23" builtinId="18"/>
-    <cellStyle name="Ênfase 6" xfId="24" builtinId="49"/>
-    <cellStyle name="Título 4" xfId="25" builtinId="19"/>
-    <cellStyle name="Entrada" xfId="26" builtinId="20"/>
-    <cellStyle name="Saída" xfId="27" builtinId="21"/>
-    <cellStyle name="Cálculo" xfId="28" builtinId="22"/>
-    <cellStyle name="Total" xfId="29" builtinId="25"/>
-    <cellStyle name="40% - Ênfase 1" xfId="30" builtinId="31"/>
-    <cellStyle name="Bom" xfId="31" builtinId="26"/>
-    <cellStyle name="Ruim" xfId="32" builtinId="27"/>
-    <cellStyle name="Neutro" xfId="33" builtinId="28"/>
-    <cellStyle name="20% - Ênfase 5" xfId="34" builtinId="46"/>
-    <cellStyle name="Ênfase 1" xfId="35" builtinId="29"/>
-    <cellStyle name="20% - Ênfase 1" xfId="36" builtinId="30"/>
-    <cellStyle name="60% - Ênfase 1" xfId="37" builtinId="32"/>
-    <cellStyle name="20% - Ênfase 6" xfId="38" builtinId="50"/>
-    <cellStyle name="Ênfase 2" xfId="39" builtinId="33"/>
-    <cellStyle name="20% - Ênfase 2" xfId="40" builtinId="34"/>
-    <cellStyle name="60% - Ênfase 2" xfId="41" builtinId="36"/>
-    <cellStyle name="40% - Ênfase 3" xfId="42" builtinId="39"/>
-    <cellStyle name="60% - Ênfase 3" xfId="43" builtinId="40"/>
-    <cellStyle name="20% - Ênfase 4" xfId="44" builtinId="42"/>
-    <cellStyle name="60% - Ênfase 4" xfId="45" builtinId="44"/>
-    <cellStyle name="40% - Ênfase 5" xfId="46" builtinId="47"/>
-    <cellStyle name="60% - Ênfase 5" xfId="47" builtinId="48"/>
+    <cellStyle name="Moeda" xfId="2" builtinId="4"/>
+    <cellStyle name="Porcentagem" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Moeda [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Hyperlink seguido" xfId="7" builtinId="9"/>
+    <cellStyle name="Observação" xfId="8" builtinId="10"/>
+    <cellStyle name="Texto de Aviso" xfId="9" builtinId="11"/>
+    <cellStyle name="Título" xfId="10" builtinId="15"/>
+    <cellStyle name="Texto Explicativo" xfId="11" builtinId="53"/>
+    <cellStyle name="Título 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Título 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Título 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Título 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Entrada" xfId="16" builtinId="20"/>
+    <cellStyle name="Saída" xfId="17" builtinId="21"/>
+    <cellStyle name="Cálculo" xfId="18" builtinId="22"/>
+    <cellStyle name="Célula de Verificação" xfId="19" builtinId="23"/>
+    <cellStyle name="Célula Vinculada" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Bom" xfId="22" builtinId="26"/>
+    <cellStyle name="Ruim" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="24" builtinId="28"/>
+    <cellStyle name="Ênfase 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Ênfase 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Ênfase 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Ênfase 1" xfId="28" builtinId="32"/>
+    <cellStyle name="Ênfase 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Ênfase 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Ênfase 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Ênfase 2" xfId="32" builtinId="36"/>
+    <cellStyle name="Ênfase 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Ênfase 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Ênfase 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Ênfase 3" xfId="36" builtinId="40"/>
+    <cellStyle name="Ênfase 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Ênfase 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Ênfase 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Ênfase 4" xfId="40" builtinId="44"/>
+    <cellStyle name="Ênfase 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Ênfase 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Ênfase 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Ênfase 5" xfId="44" builtinId="48"/>
+    <cellStyle name="Ênfase 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Ênfase 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Ênfase 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Ênfase 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -992,489 +974,489 @@
   <sheetPr/>
   <dimension ref="A1:A96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A96" sqref="A96"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" ht="15" spans="1:1">
-      <c r="A1" s="4">
+      <c r="A1" s="1">
         <v>4760</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:1">
-      <c r="A2" s="4">
+      <c r="A2" s="1">
         <v>4181</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:1">
-      <c r="A3" s="4">
+      <c r="A3" s="1">
         <v>4402</v>
       </c>
     </row>
     <row r="4" ht="15" spans="1:1">
-      <c r="A4" s="4">
+      <c r="A4" s="1">
         <v>3995</v>
       </c>
     </row>
     <row r="5" ht="15" spans="1:1">
-      <c r="A5" s="4">
+      <c r="A5" s="1">
         <v>4970</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:1">
-      <c r="A6" s="4">
+      <c r="A6" s="1">
         <v>3930</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:1">
-      <c r="A7" s="4">
+      <c r="A7" s="1">
         <v>4588</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:1">
-      <c r="A8" s="4">
+      <c r="A8" s="1">
         <v>4771</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:1">
-      <c r="A9" s="4">
+      <c r="A9" s="1">
         <v>4221</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:1">
-      <c r="A10" s="4">
+      <c r="A10" s="1">
         <v>4372</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:1">
-      <c r="A11" s="4">
+      <c r="A11" s="1">
         <v>4345</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:1">
-      <c r="A12" s="4">
+      <c r="A12" s="1">
         <v>3747</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:1">
-      <c r="A13" s="4">
+      <c r="A13" s="1">
         <v>4413</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:1">
-      <c r="A14" s="4">
+      <c r="A14" s="1">
         <v>4362</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:1">
-      <c r="A15" s="4">
+      <c r="A15" s="1">
         <v>4381</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:1">
-      <c r="A16" s="4">
+      <c r="A16" s="1">
         <v>4386</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:1">
-      <c r="A17" s="4">
+      <c r="A17" s="1">
         <v>4231</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:1">
-      <c r="A18" s="4">
+      <c r="A18" s="1">
         <v>4621</v>
       </c>
     </row>
     <row r="19" ht="15" spans="1:1">
-      <c r="A19" s="4">
+      <c r="A19" s="1">
         <v>4169</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:1">
-      <c r="A20" s="4">
+      <c r="A20" s="1">
         <v>4654</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:1">
-      <c r="A21" s="4">
+      <c r="A21" s="1">
         <v>4257</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:1">
-      <c r="A22" s="4">
+      <c r="A22" s="1">
         <v>3567</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:1">
-      <c r="A23" s="4">
+      <c r="A23" s="1">
         <v>4750</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:1">
-      <c r="A24" s="4">
+      <c r="A24" s="1">
         <v>4366</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:1">
-      <c r="A25" s="4">
+      <c r="A25" s="1">
         <v>4968</v>
       </c>
     </row>
     <row r="26" ht="15" spans="1:1">
-      <c r="A26" s="4">
+      <c r="A26" s="1">
         <v>4019</v>
       </c>
     </row>
     <row r="27" ht="15" spans="1:1">
-      <c r="A27" s="4">
+      <c r="A27" s="1">
         <v>4346</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:1">
-      <c r="A28" s="4">
+      <c r="A28" s="1">
         <v>5050</v>
       </c>
     </row>
     <row r="29" ht="15" spans="1:1">
-      <c r="A29" s="4">
+      <c r="A29" s="1">
         <v>4377</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:1">
-      <c r="A30" s="4">
+      <c r="A30" s="1">
         <v>4683</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:1">
-      <c r="A31" s="4">
+      <c r="A31" s="1">
         <v>4217</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:1">
-      <c r="A32" s="4">
+      <c r="A32" s="1">
         <v>4413</v>
       </c>
     </row>
     <row r="33" ht="15" spans="1:1">
-      <c r="A33" s="4">
+      <c r="A33" s="1">
         <v>4709</v>
       </c>
     </row>
     <row r="34" ht="15" spans="1:1">
-      <c r="A34" s="4">
+      <c r="A34" s="1">
         <v>4164</v>
       </c>
     </row>
     <row r="35" ht="15" spans="1:1">
-      <c r="A35" s="4">
+      <c r="A35" s="1">
         <v>4181</v>
       </c>
     </row>
     <row r="36" ht="15" spans="1:1">
-      <c r="A36" s="4">
+      <c r="A36" s="1">
         <v>4806</v>
       </c>
     </row>
     <row r="37" ht="15" spans="1:1">
-      <c r="A37" s="4">
+      <c r="A37" s="1">
         <v>4226</v>
       </c>
     </row>
     <row r="38" ht="15" spans="1:1">
-      <c r="A38" s="4">
+      <c r="A38" s="1">
         <v>3947</v>
       </c>
     </row>
     <row r="39" ht="15" spans="1:1">
-      <c r="A39" s="4">
+      <c r="A39" s="1">
         <v>4434</v>
       </c>
     </row>
     <row r="40" ht="15" spans="1:1">
-      <c r="A40" s="4">
+      <c r="A40" s="1">
         <v>4079</v>
       </c>
     </row>
     <row r="41" ht="15" spans="1:1">
-      <c r="A41" s="4">
+      <c r="A41" s="1">
         <v>4301</v>
       </c>
     </row>
     <row r="42" ht="15" spans="1:1">
-      <c r="A42" s="4">
+      <c r="A42" s="1">
         <v>4831</v>
       </c>
     </row>
     <row r="43" ht="15" spans="1:1">
-      <c r="A43" s="4">
+      <c r="A43" s="1">
         <v>3914</v>
       </c>
     </row>
     <row r="44" ht="15" spans="1:1">
-      <c r="A44" s="4">
+      <c r="A44" s="1">
         <v>4381</v>
       </c>
     </row>
     <row r="45" ht="15" spans="1:1">
-      <c r="A45" s="4">
+      <c r="A45" s="1">
         <v>3773</v>
       </c>
     </row>
     <row r="46" ht="15" spans="1:1">
-      <c r="A46" s="4">
+      <c r="A46" s="1">
         <v>3994</v>
       </c>
     </row>
     <row r="47" ht="15" spans="1:1">
-      <c r="A47" s="4">
+      <c r="A47" s="1">
         <v>4058</v>
       </c>
     </row>
     <row r="48" ht="15" spans="1:1">
-      <c r="A48" s="4">
+      <c r="A48" s="1">
         <v>3661</v>
       </c>
     </row>
     <row r="49" ht="15" spans="1:1">
-      <c r="A49" s="4">
+      <c r="A49" s="1">
         <v>4173</v>
       </c>
     </row>
     <row r="50" ht="15" spans="1:1">
-      <c r="A50" s="4">
+      <c r="A50" s="1">
         <v>3813</v>
       </c>
     </row>
     <row r="51" ht="15" spans="1:1">
-      <c r="A51" s="4">
+      <c r="A51" s="1">
         <v>4573</v>
       </c>
     </row>
     <row r="52" ht="15" spans="1:1">
-      <c r="A52" s="4">
+      <c r="A52" s="1">
         <v>3898</v>
       </c>
     </row>
     <row r="53" ht="15" spans="1:1">
-      <c r="A53" s="4">
+      <c r="A53" s="1">
         <v>3888</v>
       </c>
     </row>
     <row r="54" ht="15" spans="1:1">
-      <c r="A54" s="4">
+      <c r="A54" s="1">
         <v>4712</v>
       </c>
     </row>
     <row r="55" ht="15" spans="1:1">
-      <c r="A55" s="4">
+      <c r="A55" s="1">
         <v>3869</v>
       </c>
     </row>
     <row r="56" ht="15" spans="1:1">
-      <c r="A56" s="4">
+      <c r="A56" s="1">
         <v>4202</v>
       </c>
     </row>
     <row r="57" ht="15" spans="1:1">
-      <c r="A57" s="4">
+      <c r="A57" s="1">
         <v>3926</v>
       </c>
     </row>
     <row r="58" ht="15" spans="1:1">
-      <c r="A58" s="4">
+      <c r="A58" s="1">
         <v>4068</v>
       </c>
     </row>
     <row r="59" ht="15" spans="1:1">
-      <c r="A59" s="4">
+      <c r="A59" s="1">
         <v>3798</v>
       </c>
     </row>
     <row r="60" ht="15" spans="1:1">
-      <c r="A60" s="4">
+      <c r="A60" s="1">
         <v>4133</v>
       </c>
     </row>
     <row r="61" ht="15" spans="1:1">
-      <c r="A61" s="4">
+      <c r="A61" s="1">
         <v>4346</v>
       </c>
     </row>
     <row r="62" ht="15" spans="1:1">
-      <c r="A62" s="4">
+      <c r="A62" s="1">
         <v>4342</v>
       </c>
     </row>
     <row r="63" ht="15" spans="1:1">
-      <c r="A63" s="4">
+      <c r="A63" s="1">
         <v>4133</v>
       </c>
     </row>
     <row r="64" ht="15" spans="1:1">
-      <c r="A64" s="4">
+      <c r="A64" s="1">
         <v>3657</v>
       </c>
     </row>
     <row r="65" ht="15" spans="1:1">
-      <c r="A65" s="4">
+      <c r="A65" s="1">
         <v>4053</v>
       </c>
     </row>
     <row r="66" ht="15" spans="1:1">
-      <c r="A66" s="4">
+      <c r="A66" s="1">
         <v>3901</v>
       </c>
     </row>
     <row r="67" ht="15" spans="1:1">
-      <c r="A67" s="4">
+      <c r="A67" s="1">
         <v>3779</v>
       </c>
     </row>
     <row r="68" ht="15" spans="1:1">
-      <c r="A68" s="4">
+      <c r="A68" s="1">
         <v>4337</v>
       </c>
     </row>
     <row r="69" ht="15" spans="1:1">
-      <c r="A69" s="4">
+      <c r="A69" s="1">
         <v>4062</v>
       </c>
     </row>
     <row r="70" ht="15" spans="1:1">
-      <c r="A70" s="4">
+      <c r="A70" s="1">
         <v>4172</v>
       </c>
     </row>
     <row r="71" ht="15" spans="1:1">
-      <c r="A71" s="4">
+      <c r="A71" s="1">
         <v>3999</v>
       </c>
     </row>
     <row r="72" ht="15" spans="1:1">
-      <c r="A72" s="4">
+      <c r="A72" s="1">
         <v>4357</v>
       </c>
     </row>
     <row r="73" ht="15" spans="1:1">
-      <c r="A73" s="5">
+      <c r="A73" s="2">
         <v>4059</v>
       </c>
     </row>
     <row r="74" ht="15" spans="1:1">
-      <c r="A74" s="5">
+      <c r="A74" s="2">
         <v>3754</v>
       </c>
     </row>
     <row r="75" ht="15" spans="1:1">
-      <c r="A75" s="5">
+      <c r="A75" s="2">
         <v>3881</v>
       </c>
     </row>
     <row r="76" ht="15" spans="1:1">
-      <c r="A76" s="5">
+      <c r="A76" s="2">
         <v>3743</v>
       </c>
     </row>
     <row r="77" ht="15" spans="1:1">
-      <c r="A77" s="5">
+      <c r="A77" s="2">
         <v>3460</v>
       </c>
     </row>
     <row r="78" ht="15" spans="1:1">
-      <c r="A78" s="5">
+      <c r="A78" s="2">
         <v>3534</v>
       </c>
     </row>
     <row r="79" ht="15" spans="1:1">
-      <c r="A79" s="5">
+      <c r="A79" s="2">
         <v>4273</v>
       </c>
     </row>
     <row r="80" ht="15" spans="1:1">
-      <c r="A80" s="5">
+      <c r="A80" s="2">
         <v>4080</v>
       </c>
     </row>
     <row r="81" ht="15" spans="1:1">
-      <c r="A81" s="5">
+      <c r="A81" s="2">
         <v>4106</v>
       </c>
     </row>
     <row r="82" ht="15" spans="1:1">
-      <c r="A82" s="5">
+      <c r="A82" s="2">
         <v>4291</v>
       </c>
     </row>
     <row r="83" ht="15" spans="1:1">
-      <c r="A83" s="5">
+      <c r="A83" s="2">
         <v>3905</v>
       </c>
     </row>
     <row r="84" ht="15" spans="1:1">
-      <c r="A84" s="5">
+      <c r="A84" s="2">
         <v>4070</v>
       </c>
     </row>
     <row r="85" ht="15" spans="1:1">
-      <c r="A85" s="6">
+      <c r="A85" s="3">
         <v>4090</v>
       </c>
     </row>
     <row r="86" ht="15" spans="1:1">
-      <c r="A86" s="6">
+      <c r="A86" s="3">
         <v>3575</v>
       </c>
     </row>
     <row r="87" ht="15" spans="1:1">
-      <c r="A87" s="6">
+      <c r="A87" s="3">
         <v>4314</v>
       </c>
     </row>
     <row r="88" ht="15" spans="1:1">
-      <c r="A88" s="6">
+      <c r="A88" s="3">
         <v>4000</v>
       </c>
     </row>
     <row r="89" ht="15" spans="1:1">
-      <c r="A89" s="6">
+      <c r="A89" s="3">
         <v>4019</v>
       </c>
     </row>
     <row r="90" ht="15" spans="1:1">
-      <c r="A90" s="6">
+      <c r="A90" s="3">
         <v>4605</v>
       </c>
     </row>
     <row r="91" ht="15" spans="1:1">
-      <c r="A91" s="6">
+      <c r="A91" s="3">
         <v>4017</v>
       </c>
     </row>
     <row r="92" ht="15" spans="1:1">
-      <c r="A92" s="6">
+      <c r="A92" s="3">
         <v>3882</v>
       </c>
     </row>
     <row r="93" ht="15" spans="1:1">
-      <c r="A93" s="6">
+      <c r="A93" s="3">
         <v>4159</v>
       </c>
     </row>
     <row r="94" ht="15" spans="1:1">
-      <c r="A94" s="6">
+      <c r="A94" s="3">
         <v>4302</v>
       </c>
     </row>
     <row r="95" ht="15" spans="1:1">
-      <c r="A95" s="6">
+      <c r="A95" s="3">
         <v>3718</v>
       </c>
     </row>
     <row r="96" ht="15" spans="1:1">
-      <c r="A96" s="6">
+      <c r="A96" s="3">
         <v>4116</v>
       </c>
     </row>
@@ -1489,7 +1471,7 @@
   <sheetPr/>
   <dimension ref="A1:A96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+    <sheetView topLeftCell="A78" workbookViewId="0">
       <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>

--- a/hemocentro/dados_sangue.xlsx
+++ b/hemocentro/dados_sangue.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12330"/>
+    <workbookView windowWidth="14400" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="total" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -42,6 +42,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -510,137 +516,137 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -652,6 +658,12 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -972,10 +984,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A96"/>
+  <dimension ref="A1:A115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -1459,6 +1471,87 @@
       <c r="A96" s="3">
         <v>4116</v>
       </c>
+    </row>
+    <row r="97" ht="15" spans="1:1">
+      <c r="A97" s="5">
+        <v>4023</v>
+      </c>
+    </row>
+    <row r="98" ht="15" spans="1:1">
+      <c r="A98" s="5">
+        <v>3899</v>
+      </c>
+    </row>
+    <row r="99" ht="15" spans="1:1">
+      <c r="A99" s="5">
+        <v>3903</v>
+      </c>
+    </row>
+    <row r="100" ht="15" spans="1:1">
+      <c r="A100" s="5">
+        <v>4366</v>
+      </c>
+    </row>
+    <row r="101" ht="15" spans="1:1">
+      <c r="A101" s="5">
+        <v>3898</v>
+      </c>
+    </row>
+    <row r="102" ht="15" spans="1:1">
+      <c r="A102" s="5">
+        <v>4174</v>
+      </c>
+    </row>
+    <row r="103" ht="15" spans="1:1">
+      <c r="A103" s="5">
+        <v>4387</v>
+      </c>
+    </row>
+    <row r="104" ht="15" spans="1:1">
+      <c r="A104" s="5">
+        <v>3926</v>
+      </c>
+    </row>
+    <row r="105" ht="15" spans="1:1">
+      <c r="A105" s="5">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="106" ht="15" spans="1:1">
+      <c r="A106" s="5">
+        <v>4111</v>
+      </c>
+    </row>
+    <row r="107" ht="15" spans="1:1">
+      <c r="A107" s="5">
+        <v>3839</v>
+      </c>
+    </row>
+    <row r="108" ht="15" spans="1:1">
+      <c r="A108" s="5">
+        <v>4372</v>
+      </c>
+    </row>
+    <row r="109" ht="15" spans="1:1">
+      <c r="A109" s="4"/>
+    </row>
+    <row r="110" ht="15" spans="1:1">
+      <c r="A110" s="4"/>
+    </row>
+    <row r="111" ht="15" spans="1:1">
+      <c r="A111" s="4"/>
+    </row>
+    <row r="112" ht="15" spans="1:1">
+      <c r="A112" s="4"/>
+    </row>
+    <row r="113" ht="15" spans="1:1">
+      <c r="A113" s="4"/>
+    </row>
+    <row r="114" ht="15" spans="1:1">
+      <c r="A114" s="4"/>
+    </row>
+    <row r="115" ht="15" spans="1:1">
+      <c r="A115" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1469,10 +1562,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A96"/>
+  <dimension ref="A1:A108"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -1957,6 +2050,66 @@
         <v>122</v>
       </c>
     </row>
+    <row r="97" ht="15" spans="1:1">
+      <c r="A97" s="4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="98" ht="15" spans="1:1">
+      <c r="A98" s="4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="99" ht="15" spans="1:1">
+      <c r="A99" s="4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="100" ht="15" spans="1:1">
+      <c r="A100" s="4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="101" ht="15" spans="1:1">
+      <c r="A101" s="4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="102" ht="15" spans="1:1">
+      <c r="A102" s="4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="103" ht="15" spans="1:1">
+      <c r="A103" s="4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="104" ht="15" spans="1:1">
+      <c r="A104" s="4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="105" ht="15" spans="1:1">
+      <c r="A105" s="4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="106" ht="15" spans="1:1">
+      <c r="A106" s="4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="107" ht="15" spans="1:1">
+      <c r="A107" s="4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" ht="15" spans="1:1">
+      <c r="A108" s="4">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/hemocentro/dados_sangue.xlsx
+++ b/hemocentro/dados_sangue.xlsx
@@ -10,9 +10,6 @@
     <sheet name="total" sheetId="1" r:id="rId1"/>
     <sheet name="aferese" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="Bolsas">total!$A$1</definedName>
-  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -984,10 +981,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A115"/>
+  <dimension ref="A1:A108"/>
   <sheetViews>
     <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108"/>
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -1531,27 +1528,6 @@
       <c r="A108" s="5">
         <v>4372</v>
       </c>
-    </row>
-    <row r="109" ht="15" spans="1:1">
-      <c r="A109" s="4"/>
-    </row>
-    <row r="110" ht="15" spans="1:1">
-      <c r="A110" s="4"/>
-    </row>
-    <row r="111" ht="15" spans="1:1">
-      <c r="A111" s="4"/>
-    </row>
-    <row r="112" ht="15" spans="1:1">
-      <c r="A112" s="4"/>
-    </row>
-    <row r="113" ht="15" spans="1:1">
-      <c r="A113" s="4"/>
-    </row>
-    <row r="114" ht="15" spans="1:1">
-      <c r="A114" s="4"/>
-    </row>
-    <row r="115" ht="15" spans="1:1">
-      <c r="A115" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1564,8 +1540,8 @@
   <sheetPr/>
   <dimension ref="A1:A108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
